--- a/Global Aggregate workspace/Data/gbadske_tables_20220801.xlsx
+++ b/Global Aggregate workspace/Data/gbadske_tables_20220801.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Global Aggregate workspace\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85B9ED6-9F4B-4A44-9F9F-E99561C587DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="14292" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table List" sheetId="1" r:id="rId1"/>
@@ -79,12 +85,12 @@
     <sheet name="regions_worldbank" sheetId="70" r:id="rId70"/>
     <sheet name="un_geo_codes" sheetId="71" r:id="rId71"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="335">
   <si>
     <t>table_name</t>
   </si>
@@ -1094,8 +1100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1158,6 +1164,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1204,7 +1218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1236,9 +1250,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1270,6 +1302,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1445,374 +1495,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1823,114 +1878,114 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -1941,94 +1996,94 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -2039,54 +2094,54 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -2097,74 +2152,74 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -2175,109 +2230,109 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>179</v>
       </c>
@@ -2288,49 +2343,49 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -2341,114 +2396,114 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -2459,94 +2514,94 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -2557,74 +2612,74 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -2635,74 +2690,74 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -2713,54 +2768,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -2771,49 +2826,49 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -2824,99 +2879,99 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -2927,49 +2982,49 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -2980,54 +3035,54 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -3038,59 +3093,59 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -3101,99 +3156,99 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>179</v>
       </c>
@@ -3204,114 +3259,114 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -3322,94 +3377,94 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -3420,69 +3475,69 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>236</v>
       </c>
@@ -3493,64 +3548,64 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -3561,59 +3616,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -3624,49 +3679,49 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -3677,99 +3732,99 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -3780,49 +3835,49 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -3833,54 +3888,54 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -3891,59 +3946,59 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -3954,49 +4009,49 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -4007,99 +4062,99 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -4110,49 +4165,49 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -4163,54 +4218,54 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -4221,59 +4276,59 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -4284,29 +4339,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -4317,99 +4372,99 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>262</v>
       </c>
@@ -4420,54 +4475,54 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -4478,54 +4533,54 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -4536,59 +4591,59 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -4599,164 +4654,164 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>258</v>
       </c>
@@ -4767,99 +4822,99 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>179</v>
       </c>
@@ -4870,114 +4925,114 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -4988,94 +5043,94 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -5086,69 +5141,69 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>236</v>
       </c>
@@ -5159,69 +5214,69 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>162</v>
       </c>
@@ -5232,29 +5287,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -5265,39 +5320,39 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>317</v>
       </c>
@@ -5308,49 +5363,49 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -5361,54 +5416,54 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -5419,39 +5474,39 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -5462,44 +5517,44 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -5510,39 +5565,39 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -5553,39 +5608,39 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -5596,39 +5651,39 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -5639,44 +5694,44 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>321</v>
       </c>
@@ -5687,44 +5742,44 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>323</v>
       </c>
@@ -5735,34 +5790,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -5773,49 +5828,49 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>329</v>
       </c>
@@ -5826,39 +5881,39 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -5869,39 +5924,39 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -5912,44 +5967,44 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>321</v>
       </c>
@@ -5960,49 +6015,49 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>323</v>
       </c>
@@ -6013,39 +6068,39 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -6056,39 +6111,39 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>321</v>
       </c>
@@ -6099,29 +6154,29 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>319</v>
       </c>
@@ -6132,39 +6187,39 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -6175,39 +6230,39 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -6218,59 +6273,59 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -6281,24 +6336,24 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>315</v>
       </c>
@@ -6309,54 +6364,54 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>334</v>
       </c>
@@ -6367,49 +6422,49 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -6420,49 +6475,49 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>114</v>
       </c>
